--- a/EasyShip.xlsx
+++ b/EasyShip.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Choose Courier by</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>Seller's Notes</t>
+  </si>
+  <si>
+    <t>LIC Football Merch</t>
   </si>
 </sst>
 </file>
@@ -149,14 +152,112 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AF8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1"/>
-    <row r="2"/>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="X2" t="s">
+        <v>31</v>
+      </c>
+    </row>
     <row r="3"/>
     <row r="4"/>
     <row r="5"/>

--- a/EasyShip.xlsx
+++ b/EasyShip.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Choose Courier by</t>
   </si>
@@ -107,7 +107,31 @@
     <t>Seller's Notes</t>
   </si>
   <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>T924JII7D79U7RE</t>
+  </si>
+  <si>
     <t>LIC Football Merch</t>
+  </si>
+  <si>
+    <t>Timmy Donley</t>
+  </si>
+  <si>
+    <t>alexsilvestrini@yahoo.com</t>
+  </si>
+  <si>
+    <t>+(516) 729-0379</t>
+  </si>
+  <si>
+    <t>5 Bond Place</t>
+  </si>
+  <si>
+    <t>11706</t>
+  </si>
+  <si>
+    <t>Bayshore</t>
   </si>
 </sst>
 </file>
@@ -152,7 +176,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AF8"/>
+  <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -254,16 +278,37 @@
       </c>
     </row>
     <row r="2">
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" t="s">
+        <v>39</v>
+      </c>
       <c r="X2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="AB2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3"/>
-    <row r="4"/>
-    <row r="5"/>
-    <row r="6"/>
-    <row r="7"/>
-    <row r="8"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
